--- a/biology/Botanique/Square_Robert-Montagne/Square_Robert-Montagne.xlsx
+++ b/biology/Botanique/Square_Robert-Montagne/Square_Robert-Montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Robert-Montagne est un espace vert situé dans le quartier du Jardin-des-Plantes du 5e arrondissement de Paris sur la place du Puits-de-l'Ermite entre la rue du Puits-de-l'Ermite et la rue Georges-Desplas.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par la place du Puits-de-l’Ermite.
 Il est desservi par la ligne 7 à la station Place Monge.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de l'islamologue Robert Montagne (1893-1954) en raison de son immédiate proximité avec la grande mosquée de Paris à laquelle il fait face.
 </t>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en 1929 sous le nom de « square du Puits-de-l'Ermite » en raison de sa localisation sur la place homonyme, il prend par la suite le nom de « square Robert-Montagne ».
 C'est l'un des plus petits squares de Paris avec ses 581 m2 mais il possède une aire de jeux pour enfants ainsi que des mûriers blancs.
